--- a/data/epa_xls/lmopdatanj.xlsx
+++ b/data/epa_xls/lmopdatanj.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0663C1-2F0F-4300-84AD-FA311272B473}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754EB256-ED04-4DC5-B29C-156676097FAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E36BF578-CB54-41D6-8E18-1D3AD672A715}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{32CDA4F3-A830-482B-BB0E-CA38BC64978F}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C932F64F-5EDF-4544-B264-0DA3F534E0B2}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FE7D0BF9-8532-4667-B9D1-CC94E6CD3A9C}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E8E97115-51C9-4726-B55A-69B44C39E0BE}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{92F0EF05-25E0-4B92-8A8D-548E45700F37}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{307A1F0B-C1D8-4045-A737-0BD67E3F41DB}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{AD548485-7CA5-4DC9-8EDC-46EB0E6442A2}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{B79A0EB9-4065-4533-9794-2538D1EF72F5}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{7153F0A2-959F-48A8-BAC5-E59E35AC1118}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4C7A9297-661D-40E4-87D7-208352F5B71A}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{24EF24BC-A892-48A6-AB6E-0FCB520A6856}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{7F72DA04-2D81-4A2F-8CCC-03C1D7D928BE}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1416D1B4-98A6-49B2-A74E-5604568B2471}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{02C5A5CB-0AC6-4268-B170-F06B55202298}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{2EAF091B-0074-475C-AAAA-0155F5766E72}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{A4083D2B-32CD-4656-B07F-538A7AB33D55}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{63C7908E-F034-47F5-9FAE-1011DEA9FC49}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B2B4D97A-0E0D-44AD-97E8-D4D50CC5476E}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{D32B922B-E161-44E3-83A3-EBED738EB454}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{686C2517-820B-456C-B4D7-80B59550418A}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{2344A379-ED19-4AB8-8FE5-486F930EB357}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{A2BCA66D-12DF-429D-8C0D-54BB0B1D2A83}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{7FDE9104-7F04-4765-BCB6-4337FC5B9FA7}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{6B3665F1-CC7F-414C-9827-E93ED4EA4D0D}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{33982408-5A74-41E1-9049-7BDE3BB097B3}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{699A3DDD-3AE6-4347-B9B9-90CB01E13BC5}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{0C53419F-FB03-4EF8-9668-DC60123A52A9}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{52654FEC-5098-4DE3-8748-BEF08032CB55}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{C5D43C87-AF47-4744-A241-D7B682B743BC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{A61DA78D-0CDC-4FE8-9DC6-782CBCEF01B3}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{B4BC43A1-4335-4CDE-A3A2-BD91232DA3EA}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{0D893FBF-3A9E-439C-8DD1-B13D0EF59443}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="311">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -720,9 +731,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1345,9 +1353,6 @@
     <t>Morris</t>
   </si>
   <si>
-    <t>Dover Township</t>
-  </si>
-  <si>
     <t>1025-0</t>
   </si>
   <si>
@@ -1534,6 +1539,30 @@
   </si>
   <si>
     <t>Salem County Improvement Authority, NJ</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>180315-3</t>
+  </si>
+  <si>
+    <t>180315-4</t>
+  </si>
+  <si>
+    <t>Project #1, De-Expansion #2</t>
+  </si>
+  <si>
+    <t>Dover Township, NJ</t>
   </si>
 </sst>
 </file>
@@ -1957,6 +1986,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2002,19 +2044,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,10 +2426,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -2410,7 +2439,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2422,36 +2451,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2466,70 +2495,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2538,20 +2567,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2562,16 +2591,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2593,14 +2622,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - New Jersey</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2635,13 +2664,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2724,45 +2753,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="5">
         <v>2231</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="I2" s="5">
         <v>39.426000000000002</v>
@@ -2771,10 +2803,10 @@
         <v>-74.540000000000006</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M2" s="5">
         <v>1991</v>
@@ -2783,76 +2815,81 @@
         <v>2026</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6">
+        <v>6627746</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="P2" s="6">
-        <v>6300955</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="S2" s="5">
         <v>3.7890000000000001</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V2" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="X2" s="7">
         <v>38412</v>
       </c>
-      <c r="Y2" s="7"/>
+      <c r="Y2" s="7">
+        <v>42735</v>
+      </c>
       <c r="Z2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5">
         <v>1.6</v>
       </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="64">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="AF2" s="64">
-        <v>0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD2" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10">
         <v>2231</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="I3" s="10">
         <v>39.426000000000002</v>
@@ -2861,10 +2898,10 @@
         <v>-74.540000000000006</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M3" s="10">
         <v>1991</v>
@@ -2873,76 +2910,79 @@
         <v>2026</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11">
+        <v>6627746</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="11">
-        <v>6300955</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S3" s="10">
         <v>3.7890000000000001</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X3" s="12">
         <v>38944</v>
       </c>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="12">
+        <v>42735</v>
+      </c>
       <c r="Z3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10">
         <v>1.9</v>
       </c>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65">
-        <v>0.85840000000000005</v>
-      </c>
-      <c r="AF3" s="65">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="10">
         <v>2231</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="I4" s="10">
         <v>39.426000000000002</v>
@@ -2951,10 +2991,10 @@
         <v>-74.540000000000006</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M4" s="10">
         <v>1991</v>
@@ -2963,258 +3003,269 @@
         <v>2026</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11">
+        <v>6627746</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P4" s="11">
-        <v>6300955</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S4" s="10">
         <v>3.7890000000000001</v>
       </c>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X4" s="12">
         <v>39431</v>
       </c>
-      <c r="Y4" s="12"/>
+      <c r="Y4" s="12">
+        <v>42605</v>
+      </c>
       <c r="Z4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10">
         <v>1.9</v>
       </c>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="65">
-        <v>0.85840000000000005</v>
-      </c>
-      <c r="AF4" s="65">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD4" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B5" s="10">
-        <v>940</v>
+        <v>2231</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I5" s="10">
-        <v>40.076000000000001</v>
+        <v>39.426000000000002</v>
       </c>
       <c r="J5" s="10">
-        <v>-74.760000000000005</v>
+        <v>-74.540000000000006</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1991</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2026</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1989</v>
-      </c>
-      <c r="N5" s="10">
-        <v>2027</v>
-      </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="11">
+        <v>6627746</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="11">
-        <v>9539490</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S5" s="10">
-        <v>4.37</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="X5" s="12">
-        <v>37591</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>38718</v>
-      </c>
+        <v>42736</v>
+      </c>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10">
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="10">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="65"/>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="AF5" s="50">
+        <v>2.214E-2</v>
+      </c>
+      <c r="AG5" s="50">
+        <v>2.5899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B6" s="10">
-        <v>940</v>
+        <v>2231</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I6" s="10">
-        <v>40.076000000000001</v>
+        <v>39.426000000000002</v>
       </c>
       <c r="J6" s="10">
-        <v>-74.760000000000005</v>
+        <v>-74.540000000000006</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1991</v>
+      </c>
+      <c r="N6" s="10">
+        <v>2026</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1989</v>
-      </c>
-      <c r="N6" s="10">
-        <v>2027</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="11">
+        <v>6627746</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11">
-        <v>9539490</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S6" s="10">
-        <v>4.37</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="X6" s="12">
-        <v>39448</v>
+        <v>42736</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="AE6" s="65">
-        <v>0.1129</v>
-      </c>
-      <c r="AF6" s="65">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="AF6" s="50">
+        <v>2.349E-2</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>2.7399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10">
         <v>940</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="I7" s="10">
         <v>40.076000000000001</v>
@@ -3223,10 +3274,10 @@
         <v>-74.760000000000005</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M7" s="10">
         <v>1989</v>
@@ -3235,78 +3286,83 @@
         <v>2027</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11">
+        <v>9883401</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P7" s="11">
-        <v>9539490</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S7" s="10">
         <v>4.37</v>
       </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="X7" s="12">
-        <v>39387</v>
-      </c>
-      <c r="Y7" s="12"/>
+        <v>37591</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>38718</v>
+      </c>
       <c r="Z7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10">
-        <v>7.2</v>
+        <v>0.12</v>
       </c>
       <c r="AD7" s="10">
-        <v>3.96</v>
-      </c>
-      <c r="AE7" s="65">
-        <v>0.32529999999999998</v>
-      </c>
-      <c r="AF7" s="65">
-        <v>0.38300000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="AF7" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="10">
         <v>940</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="I8" s="10">
         <v>40.076000000000001</v>
@@ -3315,10 +3371,10 @@
         <v>-74.760000000000005</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M8" s="10">
         <v>1989</v>
@@ -3327,76 +3383,81 @@
         <v>2027</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11">
+        <v>9883401</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" s="11">
-        <v>9539490</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S8" s="10">
         <v>4.37</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="X8" s="12">
-        <v>35065</v>
+        <v>39448</v>
       </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
+      <c r="AC8" s="10">
+        <v>0.25</v>
+      </c>
       <c r="AD8" s="10">
-        <v>0.216</v>
-      </c>
-      <c r="AE8" s="65">
-        <v>0.18909999999999999</v>
-      </c>
-      <c r="AF8" s="65">
-        <v>0.187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AF8" s="50">
+        <v>1.129E-2</v>
+      </c>
+      <c r="AG8" s="50">
+        <v>1.32E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="10">
         <v>940</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>109</v>
       </c>
       <c r="I9" s="10">
         <v>40.076000000000001</v>
@@ -3405,10 +3466,10 @@
         <v>-74.760000000000005</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M9" s="10">
         <v>1989</v>
@@ -3417,264 +3478,263 @@
         <v>2027</v>
       </c>
       <c r="O9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="11">
+        <v>9883401</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P9" s="11">
-        <v>9539490</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S9" s="10">
         <v>4.37</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>240</v>
+        <v>113</v>
       </c>
       <c r="X9" s="12">
-        <v>38279</v>
-      </c>
-      <c r="Y9" s="12">
-        <v>38379</v>
-      </c>
+        <v>39387</v>
+      </c>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB9" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC9" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10">
+        <v>7.2</v>
+      </c>
       <c r="AD9" s="10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>7.2</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>3.96</v>
+      </c>
+      <c r="AF9" s="50">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="AG9" s="50">
+        <v>3.798E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B10" s="10">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I10" s="10">
-        <v>39.229399999999998</v>
+        <v>40.076000000000001</v>
       </c>
       <c r="J10" s="10">
-        <v>-74.774900000000002</v>
+        <v>-74.760000000000005</v>
       </c>
       <c r="K10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1989</v>
+      </c>
+      <c r="N10" s="10">
+        <v>2027</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="10">
-        <v>1984</v>
-      </c>
-      <c r="N10" s="10">
-        <v>2094</v>
-      </c>
-      <c r="O10" s="10" t="s">
+      <c r="P10" s="11">
+        <v>9883401</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>2008</v>
-      </c>
-      <c r="R10" s="10" t="s">
+      <c r="S10" s="10">
+        <v>4.37</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S10" s="10">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="V10" s="10" t="s">
+      <c r="W10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="X10" s="12">
-        <v>35796</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>39813</v>
-      </c>
+        <v>35065</v>
+      </c>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="10">
-        <v>0.432</v>
-      </c>
-      <c r="AE10" s="65">
-        <v>0.37819999999999998</v>
-      </c>
-      <c r="AF10" s="65">
-        <v>0.373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10">
+        <v>0.216</v>
+      </c>
+      <c r="AF10" s="50">
+        <v>1.891E-2</v>
+      </c>
+      <c r="AG10" s="50">
+        <v>1.8699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B11" s="10">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I11" s="10">
-        <v>39.229399999999998</v>
+        <v>40.076000000000001</v>
       </c>
       <c r="J11" s="10">
-        <v>-74.774900000000002</v>
+        <v>-74.760000000000005</v>
       </c>
       <c r="K11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="10">
+        <v>1989</v>
+      </c>
+      <c r="N11" s="10">
+        <v>2027</v>
+      </c>
+      <c r="O11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1984</v>
-      </c>
-      <c r="N11" s="10">
-        <v>2094</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="P11" s="11">
+        <v>9883401</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="11">
-        <v>4000000</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>2008</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S11" s="10">
-        <v>1.5840000000000001</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0</v>
-      </c>
+        <v>4.37</v>
+      </c>
+      <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="X11" s="12">
-        <v>39192</v>
-      </c>
-      <c r="Y11" s="12"/>
+        <v>38279</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>38379</v>
+      </c>
       <c r="Z11" s="10" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>0.17299999999999999</v>
-      </c>
-      <c r="AE11" s="65">
-        <v>0.13550000000000001</v>
-      </c>
-      <c r="AF11" s="65">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="10">
         <v>941</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="G12" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="I12" s="10">
         <v>39.229399999999998</v>
@@ -3683,10 +3743,10 @@
         <v>-74.774900000000002</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M12" s="10">
         <v>1984</v>
@@ -3695,7 +3755,7 @@
         <v>2094</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="11">
         <v>4000000</v>
@@ -3704,7 +3764,7 @@
         <v>2008</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="10">
         <v>1.5840000000000001</v>
@@ -3713,62 +3773,63 @@
         <v>0</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="V12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="X12" s="12">
+        <v>35796</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>39813</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10">
+        <v>0.432</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="AG12" s="50">
+        <v>3.7299999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="X12" s="12">
-        <v>39617</v>
-      </c>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="AE12" s="65">
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="AF12" s="65">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="B13" s="10">
         <v>941</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="G13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="I13" s="10">
         <v>39.229399999999998</v>
@@ -3777,10 +3838,10 @@
         <v>-74.774900000000002</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M13" s="10">
         <v>1984</v>
@@ -3789,7 +3850,7 @@
         <v>2094</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="11">
         <v>4000000</v>
@@ -3798,7 +3859,7 @@
         <v>2008</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="10">
         <v>1.5840000000000001</v>
@@ -3807,987 +3868,1033 @@
         <v>0</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="X13" s="12">
-        <v>41569</v>
-      </c>
-      <c r="Y13" s="12"/>
+        <v>39192</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>43465</v>
+      </c>
       <c r="Z13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10">
-        <v>1.85</v>
+        <v>0.3</v>
       </c>
       <c r="AD13" s="10">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="AE13" s="65">
-        <v>0.83579999999999999</v>
-      </c>
-      <c r="AF13" s="65">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AF13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B14" s="10">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="I14" s="10">
-        <v>39.450000000000003</v>
+        <v>39.229399999999998</v>
       </c>
       <c r="J14" s="10">
-        <v>-75.099599999999995</v>
+        <v>-74.774900000000002</v>
       </c>
       <c r="K14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1984</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2094</v>
+      </c>
+      <c r="O14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" s="10">
-        <v>1987</v>
-      </c>
-      <c r="N14" s="10">
-        <v>2041</v>
-      </c>
-      <c r="O14" s="10" t="s">
+      <c r="P14" s="11">
+        <v>4000000</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>2008</v>
+      </c>
+      <c r="R14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="11">
-        <v>5976766</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S14" s="10">
-        <v>2.4</v>
+        <v>1.5840000000000001</v>
       </c>
       <c r="T14" s="10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="X14" s="12">
-        <v>39753</v>
-      </c>
-      <c r="Y14" s="12"/>
+        <v>39617</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>43465</v>
+      </c>
       <c r="Z14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AE14" s="65">
-        <v>0.21686</v>
-      </c>
-      <c r="AF14" s="65">
-        <v>0.25359999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+        <v>0.15</v>
+      </c>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AF14" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="B15" s="10">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>241</v>
+        <v>118</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>120</v>
+      </c>
       <c r="G15" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+        <v>121</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="10">
+        <v>39.229399999999998</v>
+      </c>
+      <c r="J15" s="10">
+        <v>-74.774900000000002</v>
+      </c>
       <c r="K15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1984</v>
+      </c>
+      <c r="N15" s="10">
+        <v>2094</v>
+      </c>
+      <c r="O15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="P15" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="Q15" s="10"/>
+        <v>4000000</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2008</v>
+      </c>
       <c r="R15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="V15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="W15" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="X15" s="12">
+        <v>41569</v>
+      </c>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA15" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="X15" s="12">
-        <v>30317</v>
-      </c>
-      <c r="Y15" s="12">
-        <v>31778</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-    </row>
-    <row r="16" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>1.85</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AF15" s="50">
+        <v>8.3580000000000002E-2</v>
+      </c>
+      <c r="AG15" s="50">
+        <v>9.7599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B16" s="10">
-        <v>20803</v>
+        <v>942</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I16" s="10">
-        <v>40.474167000000001</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="J16" s="10">
-        <v>-74.394833000000006</v>
+        <v>-75.099599999999995</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="M16" s="10">
-        <v>1973</v>
+        <v>1987</v>
       </c>
       <c r="N16" s="10">
-        <v>1994</v>
+        <v>2041</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P16" s="11">
-        <v>17640000</v>
+        <v>6173546</v>
       </c>
       <c r="Q16" s="10">
-        <v>1994</v>
+        <v>2018</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="10">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="W16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="12">
+        <v>39753</v>
+      </c>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA16" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="X16" s="12">
-        <v>35704</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>39742</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA16" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10">
-        <v>9.9</v>
-      </c>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-    </row>
-    <row r="17" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>141</v>
-      </c>
+        <v>4.8</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AF16" s="50">
+        <v>0.21686</v>
+      </c>
+      <c r="AG16" s="50">
+        <v>2.5319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
       <c r="B17" s="10">
-        <v>20803</v>
+        <v>954</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>144</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="10">
-        <v>40.474167000000001</v>
-      </c>
-      <c r="J17" s="10">
-        <v>-74.394833000000006</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="M17" s="10">
-        <v>1973</v>
-      </c>
-      <c r="N17" s="10">
-        <v>1994</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P17" s="11">
-        <v>17640000</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>1994</v>
-      </c>
+        <v>1000000</v>
+      </c>
+      <c r="Q17" s="10"/>
       <c r="R17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="10">
-        <v>2.1269999999999998</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="V17" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W17" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="X17" s="12">
-        <v>40725</v>
-      </c>
-      <c r="Y17" s="12"/>
+        <v>30317</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>31778</v>
+      </c>
       <c r="Z17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10">
-        <v>9.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="65">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="AF17" s="65">
-        <v>0.15210000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="B18" s="10">
-        <v>946</v>
+        <v>20803</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="10">
+        <v>40.474167000000001</v>
+      </c>
+      <c r="J18" s="10">
+        <v>-74.394833000000006</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I18" s="10">
-        <v>40.489400000000003</v>
-      </c>
-      <c r="J18" s="10">
-        <v>-74.383200000000002</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="M18" s="10">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="N18" s="10">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="11">
-        <v>2500000</v>
-      </c>
-      <c r="Q18" s="10"/>
+        <v>17640000</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>1994</v>
+      </c>
       <c r="R18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="S18" s="10">
+        <v>1.9379999999999999</v>
+      </c>
       <c r="T18" s="10"/>
       <c r="U18" s="10" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="V18" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W18" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="X18" s="12">
-        <v>36892</v>
-      </c>
-      <c r="Y18" s="12"/>
+        <v>35704</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>39742</v>
+      </c>
       <c r="Z18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA18" s="10" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10">
-        <v>20</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>7.56</v>
-      </c>
-      <c r="AE18" s="65">
-        <v>0.31169999999999998</v>
-      </c>
-      <c r="AF18" s="65">
-        <v>0.35210000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+        <v>9.9</v>
+      </c>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="B19" s="10">
-        <v>938</v>
+        <v>20803</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="F19" s="10" t="s">
-        <v>303</v>
+        <v>142</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+        <v>143</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="10">
+        <v>40.474167000000001</v>
+      </c>
+      <c r="J19" s="10">
+        <v>-74.394833000000006</v>
+      </c>
       <c r="K19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="M19" s="10">
-        <v>1979</v>
-      </c>
-      <c r="N19" s="10"/>
+        <v>1973</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1994</v>
+      </c>
       <c r="O19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="10"/>
+        <v>42</v>
+      </c>
+      <c r="P19" s="11">
+        <v>17640000</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>1994</v>
+      </c>
       <c r="R19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="S19" s="10">
+        <v>1.9379999999999999</v>
+      </c>
       <c r="T19" s="10"/>
       <c r="U19" s="10" t="s">
-        <v>304</v>
+        <v>146</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="W19" s="10"/>
-      <c r="X19" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X19" s="12">
+        <v>40725</v>
+      </c>
       <c r="Y19" s="12"/>
       <c r="Z19" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-    </row>
-    <row r="20" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="AC19" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="50">
+        <v>0.13012000000000001</v>
+      </c>
+      <c r="AG19" s="50">
+        <v>1.519E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
       <c r="B20" s="10">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="I20" s="10">
-        <v>39.712499999999999</v>
+        <v>40.489400000000003</v>
       </c>
       <c r="J20" s="10">
-        <v>-75.284999999999997</v>
+        <v>-74.383200000000002</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="M20" s="10">
-        <v>1987</v>
+        <v>1970</v>
       </c>
       <c r="N20" s="10">
-        <v>2050</v>
+        <v>1990</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P20" s="11">
+        <v>2500000</v>
+      </c>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="11">
-        <v>14165983</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R20" s="10" t="s">
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="10">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="T20" s="10">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="12"/>
+      <c r="W20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="X20" s="12">
+        <v>36892</v>
+      </c>
       <c r="Y20" s="12"/>
       <c r="Z20" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA20" s="10" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="AC20" s="10">
+        <v>20</v>
+      </c>
       <c r="AD20" s="10"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-    </row>
-    <row r="21" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE20" s="10">
+        <v>7.56</v>
+      </c>
+      <c r="AF20" s="50">
+        <v>0.30116999999999999</v>
+      </c>
+      <c r="AG20" s="50">
+        <v>3.517E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="10">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>158</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I21" s="10">
-        <v>41.093800000000002</v>
-      </c>
-      <c r="J21" s="10">
-        <v>-74.670199999999994</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10">
-        <v>1977</v>
-      </c>
-      <c r="N21" s="10">
-        <v>1985</v>
-      </c>
+        <v>1979</v>
+      </c>
+      <c r="N21" s="10"/>
       <c r="O21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="11">
-        <v>1700000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P21" s="11"/>
       <c r="Q21" s="10"/>
       <c r="R21" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="V21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="12">
-        <v>32874</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="W21" s="10"/>
+      <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
       <c r="Z21" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB21" s="10"/>
-      <c r="AC21" s="10">
-        <v>1.2</v>
-      </c>
+      <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
-      <c r="AE21" s="65">
-        <v>0.54220000000000002</v>
-      </c>
-      <c r="AF21" s="65">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="B22" s="10">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="F22" s="10" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H22" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="I22" s="10">
-        <v>40.783999999999999</v>
+        <v>39.712499999999999</v>
       </c>
       <c r="J22" s="10">
-        <v>-74.113</v>
+        <v>-75.284999999999997</v>
       </c>
       <c r="K22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="M22" s="10">
+        <v>1987</v>
+      </c>
+      <c r="N22" s="10">
+        <v>2050</v>
+      </c>
+      <c r="O22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="M22" s="10">
-        <v>1950</v>
-      </c>
-      <c r="N22" s="10">
-        <v>1984</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="P22" s="11">
-        <v>5998800</v>
-      </c>
-      <c r="Q22" s="10"/>
+        <v>15186858</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>2018</v>
+      </c>
       <c r="R22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S22" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="T22" s="10"/>
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0.53700000000000003</v>
+      </c>
       <c r="U22" s="10" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="X22" s="12">
-        <v>32509</v>
-      </c>
-      <c r="Y22" s="12">
-        <v>39447</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W22" s="10"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
       <c r="Z22" s="10" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="AA22" s="10" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
-      <c r="AD22" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-    </row>
-    <row r="23" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+    </row>
+    <row r="23" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="10">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>248</v>
+        <v>157</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="10">
+        <v>41.093800000000002</v>
+      </c>
+      <c r="J23" s="10">
+        <v>-74.670199999999994</v>
+      </c>
       <c r="K23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>228</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="L23" s="10"/>
       <c r="M23" s="10">
-        <v>1950</v>
+        <v>1977</v>
       </c>
       <c r="N23" s="10">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="O23" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="11">
-        <v>26994601</v>
+        <v>1700000</v>
       </c>
       <c r="Q23" s="10"/>
       <c r="R23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S23" s="10">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10" t="s">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>149</v>
+        <v>34</v>
       </c>
       <c r="X23" s="12">
-        <v>32509</v>
+        <v>32874</v>
       </c>
       <c r="Y23" s="12">
-        <v>39447</v>
+        <v>40227</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="AA23" s="10" t="s">
-        <v>251</v>
+        <v>35</v>
       </c>
       <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-    </row>
-    <row r="24" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC23" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="50"/>
+      <c r="AG23" s="50"/>
+    </row>
+    <row r="24" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="10">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>164</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="10" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>145</v>
+        <v>246</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="10">
-        <v>40.487695000000002</v>
+        <v>40.783999999999999</v>
       </c>
       <c r="J24" s="10">
-        <v>-74.359059999999999</v>
+        <v>-74.113</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="M24" s="10">
-        <v>1963</v>
+        <v>1950</v>
       </c>
       <c r="N24" s="10">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P24" s="11">
-        <v>4302213</v>
+        <v>5998800</v>
       </c>
       <c r="Q24" s="10"/>
       <c r="R24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0.6</v>
+      </c>
       <c r="T24" s="10"/>
       <c r="U24" s="10" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X24" s="12">
-        <v>36892</v>
-      </c>
-      <c r="Y24" s="12"/>
+        <v>32509</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>39447</v>
+      </c>
       <c r="Z24" s="10" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AA24" s="10" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="AB24" s="10"/>
-      <c r="AC24" s="10">
-        <v>20</v>
-      </c>
-      <c r="AD24" s="10">
-        <v>7.56</v>
-      </c>
-      <c r="AE24" s="65">
-        <v>0.31169999999999998</v>
-      </c>
-      <c r="AF24" s="65">
-        <v>0.35210000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>253</v>
-      </c>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="50"/>
+    </row>
+    <row r="25" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
       <c r="B25" s="10">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="10">
-        <v>40.750855000000001</v>
-      </c>
-      <c r="J25" s="10">
-        <v>-74.109759999999994</v>
-      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="M25" s="10">
         <v>1950</v>
       </c>
       <c r="N25" s="10">
-        <v>1982</v>
+        <v>1987</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="P25" s="11">
+        <v>26994601</v>
+      </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="10">
-        <v>0.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="T25" s="10"/>
       <c r="U25" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X25" s="12">
         <v>32509</v>
@@ -4796,303 +4903,299 @@
         <v>39447</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
-      <c r="AD25" s="10">
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10">
         <v>5.8</v>
       </c>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="65"/>
-    </row>
-    <row r="26" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>222</v>
-      </c>
+      <c r="AF25" s="50"/>
+      <c r="AG25" s="50"/>
+    </row>
+    <row r="26" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
       <c r="B26" s="10">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>225</v>
+        <v>150</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>227</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26" s="10">
-        <v>40.783999999999999</v>
+        <v>40.487695000000002</v>
       </c>
       <c r="J26" s="10">
-        <v>-74.113</v>
+        <v>-74.359059999999999</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>228</v>
+        <v>163</v>
       </c>
       <c r="M26" s="10">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="N26" s="10">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P26" s="11">
-        <v>9700000</v>
+        <v>4302213</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="V26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S26" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="T26" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="W26" s="10" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="X26" s="12">
-        <v>36256</v>
-      </c>
-      <c r="Y26" s="12">
-        <v>40543</v>
-      </c>
+        <v>36892</v>
+      </c>
+      <c r="Y26" s="12"/>
       <c r="Z26" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA26" s="10" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10">
-        <v>1.9</v>
+        <v>20</v>
       </c>
       <c r="AD26" s="10"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-    </row>
-    <row r="27" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE26" s="10">
+        <v>7.56</v>
+      </c>
+      <c r="AF26" s="50">
+        <v>0.30116999999999999</v>
+      </c>
+      <c r="AG26" s="50">
+        <v>3.517E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="B27" s="10">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>224</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="10" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>227</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="I27" s="10">
-        <v>40.783999999999999</v>
+        <v>40.750855000000001</v>
       </c>
       <c r="J27" s="10">
-        <v>-74.113</v>
+        <v>-74.109759999999994</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M27" s="10">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="N27" s="10">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="11">
-        <v>9700000</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="P27" s="11"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S27" s="10">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="T27" s="10">
-        <v>1.1299999999999999</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="T27" s="10"/>
       <c r="U27" s="10" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X27" s="12">
-        <v>43465</v>
-      </c>
-      <c r="Y27" s="12"/>
+        <v>32509</v>
+      </c>
+      <c r="Y27" s="12">
+        <v>39447</v>
+      </c>
       <c r="Z27" s="10" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB27" s="10" t="s">
-        <v>233</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-    </row>
-    <row r="28" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE27" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+    </row>
+    <row r="28" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="B28" s="10">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="I28" s="10">
-        <v>39.79</v>
+        <v>40.783999999999999</v>
       </c>
       <c r="J28" s="10">
-        <v>-75.099800000000002</v>
+        <v>-74.113</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="M28" s="10">
         <v>1960</v>
       </c>
       <c r="N28" s="10">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="11">
-        <v>7259985</v>
+        <v>9700000</v>
       </c>
       <c r="Q28" s="10"/>
       <c r="R28" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="T28" s="10"/>
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="T28" s="10">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="U28" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" s="12">
+        <v>36256</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>40543</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="X28" s="12">
-        <v>31778</v>
-      </c>
-      <c r="Y28" s="12">
-        <v>37986</v>
-      </c>
-      <c r="Z28" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA28" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AD28" s="10"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-    </row>
-    <row r="29" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+    </row>
+    <row r="29" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B29" s="10">
         <v>957</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="I29" s="10">
         <v>39.79</v>
@@ -5101,10 +5204,10 @@
         <v>-75.099800000000002</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M29" s="10">
         <v>1960</v>
@@ -5113,340 +5216,346 @@
         <v>1987</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="11">
         <v>7259985</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="R29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="10">
         <v>0.4</v>
       </c>
       <c r="T29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="V29" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W29" s="10" t="s">
-        <v>174</v>
-      </c>
       <c r="X29" s="12">
-        <v>37987</v>
-      </c>
-      <c r="Y29" s="12"/>
+        <v>31778</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>37986</v>
+      </c>
       <c r="Z29" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA29" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD29" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="AE29" s="65">
-        <v>0.67769999999999997</v>
-      </c>
-      <c r="AF29" s="65">
-        <v>0.79200000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>2.4</v>
+      </c>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>258</v>
+        <v>164</v>
       </c>
       <c r="B30" s="10">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>259</v>
+        <v>165</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>166</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="I30" s="10">
-        <v>39.983499999999999</v>
+        <v>39.79</v>
       </c>
       <c r="J30" s="10">
-        <v>-74.772499999999994</v>
+        <v>-75.099800000000002</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" s="10">
+        <v>1960</v>
+      </c>
+      <c r="N30" s="10">
+        <v>1987</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M30" s="10">
-        <v>1968</v>
-      </c>
-      <c r="N30" s="10">
-        <v>1986</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="P30" s="11">
-        <v>16271041</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>1986</v>
-      </c>
+        <v>7259985</v>
+      </c>
+      <c r="Q30" s="10"/>
       <c r="R30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="V30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S30" s="10">
-        <v>0.504</v>
-      </c>
-      <c r="T30" s="10">
-        <v>0.504</v>
-      </c>
-      <c r="U30" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="V30" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="W30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="X30" s="12">
+        <v>37987</v>
+      </c>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA30" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="X30" s="12">
-        <v>32933</v>
-      </c>
-      <c r="Y30" s="12">
-        <v>36631</v>
-      </c>
-      <c r="Z30" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA30" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="AF30" s="50">
+        <v>6.7769999999999997E-2</v>
+      </c>
+      <c r="AG30" s="50">
+        <v>7.9100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="10">
+        <v>961</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I31" s="10">
+        <v>39.983499999999999</v>
+      </c>
+      <c r="J31" s="10">
+        <v>-74.772499999999994</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="10">
+        <v>1968</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1986</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="11">
+        <v>16271041</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>1986</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="V31" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X31" s="12">
+        <v>32933</v>
+      </c>
+      <c r="Y31" s="12">
+        <v>36631</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10">
         <v>3.3</v>
       </c>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="65"/>
-      <c r="AF30" s="65"/>
-    </row>
-    <row r="31" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="50"/>
+      <c r="AG31" s="50"/>
+    </row>
+    <row r="32" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" s="10">
+        <v>950</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="10">
-        <v>950</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="I32" s="10">
+        <v>40.607300000000002</v>
+      </c>
+      <c r="J32" s="10">
+        <v>-74.246600000000001</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="M32" s="10">
+        <v>1946</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1999</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="11">
+        <v>1155339</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>1999</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="U32" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="V32" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="I31" s="10">
-        <v>40.607300000000002</v>
-      </c>
-      <c r="J31" s="10">
-        <v>-74.246600000000001</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="M31" s="10">
-        <v>1946</v>
-      </c>
-      <c r="N31" s="10">
-        <v>1999</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="11">
-        <v>1155339</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>1999</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="T31" s="10">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="U31" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="V31" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="W31" s="10"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA31" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
-      <c r="AD31" s="10"/>
-      <c r="AE31" s="65"/>
-      <c r="AF31" s="65"/>
-    </row>
-    <row r="32" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="10">
-        <v>945</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="10">
-        <v>40.468800000000002</v>
-      </c>
-      <c r="J32" s="10">
-        <v>-74.396100000000004</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M32" s="10">
-        <v>1992</v>
-      </c>
-      <c r="N32" s="10">
-        <v>2030</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="11">
-        <v>14497227</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S32" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="X32" s="12">
-        <v>36892</v>
-      </c>
+      <c r="W32" s="10"/>
+      <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA32" s="10" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="AB32" s="10"/>
-      <c r="AC32" s="10">
-        <v>20</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>7.56</v>
-      </c>
-      <c r="AE32" s="65">
-        <v>0.31259999999999999</v>
-      </c>
-      <c r="AF32" s="65">
-        <v>0.35220000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+    </row>
+    <row r="33" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B33" s="10">
         <v>945</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F33" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="I33" s="10">
         <v>40.468800000000002</v>
@@ -5455,10 +5564,10 @@
         <v>-74.396100000000004</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M33" s="10">
         <v>1992</v>
@@ -5467,168 +5576,172 @@
         <v>2030</v>
       </c>
       <c r="O33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="11">
+        <v>15064741</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P33" s="11">
-        <v>14497227</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S33" s="10">
-        <v>5.2</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="X33" s="12">
-        <v>40725</v>
+        <v>36892</v>
       </c>
       <c r="Y33" s="12"/>
       <c r="Z33" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA33" s="10" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10">
-        <v>9.6</v>
+        <v>20</v>
       </c>
       <c r="AD33" s="10"/>
-      <c r="AE33" s="65">
-        <v>0.33610000000000001</v>
-      </c>
-      <c r="AF33" s="65">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE33" s="10">
+        <v>7.56</v>
+      </c>
+      <c r="AF33" s="50">
+        <v>0.30125999999999997</v>
+      </c>
+      <c r="AG33" s="50">
+        <v>3.5180000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B34" s="10">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="I34" s="10">
-        <v>40.244999999999997</v>
+        <v>40.468800000000002</v>
       </c>
       <c r="J34" s="10">
-        <v>-74.114999999999995</v>
+        <v>-74.396100000000004</v>
       </c>
       <c r="K34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1992</v>
+      </c>
+      <c r="N34" s="10">
+        <v>2030</v>
+      </c>
+      <c r="O34" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="M34" s="10">
-        <v>1977</v>
-      </c>
-      <c r="N34" s="10">
-        <v>2020</v>
-      </c>
-      <c r="O34" s="10" t="s">
+      <c r="P34" s="11">
+        <v>15064741</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P34" s="11">
-        <v>19179294</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S34" s="10">
-        <v>6.5</v>
+        <v>5.6050000000000004</v>
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="10" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="X34" s="12">
-        <v>35796</v>
+        <v>40725</v>
       </c>
       <c r="Y34" s="12"/>
       <c r="Z34" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA34" s="10" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD34" s="10">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AE34" s="65">
-        <v>0.45179999999999998</v>
-      </c>
-      <c r="AF34" s="65">
-        <v>0.5282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>9.6</v>
+      </c>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="50">
+        <v>0.30360999999999999</v>
+      </c>
+      <c r="AG34" s="50">
+        <v>3.5450000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B35" s="10">
         <v>947</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="I35" s="10">
         <v>40.244999999999997</v>
@@ -5637,180 +5750,184 @@
         <v>-74.114999999999995</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M35" s="10">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="N35" s="10">
         <v>2020</v>
       </c>
       <c r="O35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="11">
+        <v>19572032</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R35" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P35" s="11">
-        <v>19179294</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S35" s="10">
         <v>6.5</v>
       </c>
       <c r="T35" s="10"/>
       <c r="U35" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="X35" s="12">
-        <v>39479</v>
+        <v>35977</v>
       </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AF35" s="50">
+        <v>0.45179999999999998</v>
+      </c>
+      <c r="AG35" s="50">
+        <v>5.2760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="10">
+        <v>947</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="10">
+        <v>40.244999999999997</v>
+      </c>
+      <c r="J36" s="10">
+        <v>-74.114999999999995</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1976</v>
+      </c>
+      <c r="N36" s="10">
+        <v>2020</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="11">
+        <v>19572032</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X36" s="12">
+        <v>39479</v>
+      </c>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10">
         <v>1</v>
       </c>
-      <c r="AD35" s="10">
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10">
         <v>0.64800000000000002</v>
       </c>
-      <c r="AE35" s="65">
-        <v>0.45179999999999998</v>
-      </c>
-      <c r="AF35" s="65">
-        <v>0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="10">
-        <v>964</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I36" s="10">
-        <v>40.770000000000003</v>
-      </c>
-      <c r="J36" s="10">
-        <v>-74.117000000000004</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1950</v>
-      </c>
-      <c r="N36" s="10">
-        <v>2008</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="11">
-        <v>50589532</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>2008</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S36" s="10">
-        <v>1.59</v>
-      </c>
-      <c r="T36" s="10">
-        <v>1.59</v>
-      </c>
-      <c r="U36" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="W36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X36" s="12">
-        <v>35796</v>
-      </c>
-      <c r="Y36" s="12">
-        <v>37257</v>
-      </c>
-      <c r="Z36" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA36" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-    </row>
-    <row r="37" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF36" s="50">
+        <v>4.5179999999999998E-2</v>
+      </c>
+      <c r="AG36" s="50">
+        <v>5.28E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B37" s="10">
         <v>964</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F37" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="I37" s="10">
         <v>40.770000000000003</v>
@@ -5819,10 +5936,10 @@
         <v>-74.117000000000004</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M37" s="10">
         <v>1950</v>
@@ -5831,7 +5948,7 @@
         <v>2008</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" s="11">
         <v>50589532</v>
@@ -5840,69 +5957,68 @@
         <v>2008</v>
       </c>
       <c r="R37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S37" s="10">
-        <v>1.59</v>
+        <v>1.306</v>
       </c>
       <c r="T37" s="10">
-        <v>1.59</v>
+        <v>1.306</v>
       </c>
       <c r="U37" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="V37" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="X37" s="12">
         <v>35796</v>
       </c>
       <c r="Y37" s="12">
-        <v>40543</v>
+        <v>37257</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="AB37" s="10"/>
-      <c r="AC37" s="10">
-        <v>3.8</v>
-      </c>
-      <c r="AD37" s="10">
-        <v>1.6</v>
-      </c>
-      <c r="AE37" s="65"/>
-      <c r="AF37" s="65"/>
-    </row>
-    <row r="38" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+    </row>
+    <row r="38" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="10">
         <v>964</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F38" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="I38" s="10">
         <v>40.770000000000003</v>
@@ -5911,10 +6027,10 @@
         <v>-74.117000000000004</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M38" s="10">
         <v>1950</v>
@@ -5923,7 +6039,7 @@
         <v>2008</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="11">
         <v>50589532</v>
@@ -5932,155 +6048,159 @@
         <v>2008</v>
       </c>
       <c r="R38" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S38" s="10">
-        <v>1.59</v>
+        <v>1.306</v>
       </c>
       <c r="T38" s="10">
-        <v>1.59</v>
+        <v>1.306</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="X38" s="12">
+        <v>35796</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>40543</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+    </row>
+    <row r="39" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="10">
+        <v>964</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I39" s="10">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="J39" s="10">
+        <v>-74.117000000000004</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1950</v>
+      </c>
+      <c r="N39" s="10">
+        <v>2008</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P39" s="11">
+        <v>50589532</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>2008</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="10">
+        <v>1.306</v>
+      </c>
+      <c r="T39" s="10">
+        <v>1.306</v>
+      </c>
+      <c r="U39" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="V39" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="X39" s="12">
         <v>43465</v>
-      </c>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA38" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB38" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="65"/>
-      <c r="AF38" s="65"/>
-    </row>
-    <row r="39" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" s="10">
-        <v>951</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I39" s="10">
-        <v>40.024999999999999</v>
-      </c>
-      <c r="J39" s="10">
-        <v>-74.254999999999995</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="M39" s="10">
-        <v>1973</v>
-      </c>
-      <c r="N39" s="10">
-        <v>2025</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="11">
-        <v>18692120</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" s="10">
-        <v>7.05</v>
-      </c>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="V39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W39" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X39" s="12">
-        <v>35462</v>
       </c>
       <c r="Y39" s="12"/>
       <c r="Z39" s="10" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="AA39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10">
-        <v>4.8</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="AB39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
-      <c r="AE39" s="65">
-        <v>0.21686</v>
-      </c>
-      <c r="AF39" s="65">
-        <v>0.25359999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+    </row>
+    <row r="40" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B40" s="10">
         <v>951</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>192</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="I40" s="10">
         <v>40.024999999999999</v>
@@ -6089,10 +6209,10 @@
         <v>-74.254999999999995</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M40" s="10">
         <v>1973</v>
@@ -6101,250 +6221,259 @@
         <v>2025</v>
       </c>
       <c r="O40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="11">
+        <v>19236289</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R40" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="11">
-        <v>18692120</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R40" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S40" s="10">
-        <v>7.05</v>
+        <v>7.2439999999999998</v>
       </c>
       <c r="T40" s="10"/>
       <c r="U40" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W40" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="X40" s="12">
-        <v>39175</v>
+        <v>35462</v>
       </c>
       <c r="Y40" s="12"/>
       <c r="Z40" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA40" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB40" s="10"/>
       <c r="AC40" s="10">
-        <v>9.6</v>
-      </c>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="65">
-        <v>0.43373</v>
-      </c>
-      <c r="AF40" s="65">
-        <v>0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="50">
+        <v>0.21686</v>
+      </c>
+      <c r="AG40" s="50">
+        <v>2.5319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="B41" s="10">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>295</v>
+        <v>189</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="I41" s="10">
-        <v>40.127200000000002</v>
+        <v>40.024999999999999</v>
       </c>
       <c r="J41" s="10">
-        <v>-74.711100000000002</v>
+        <v>-74.254999999999995</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="M41" s="10">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="N41" s="10">
-        <v>1989</v>
+        <v>2025</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="P41" s="11">
-        <v>3585110</v>
+        <v>19236289</v>
       </c>
       <c r="Q41" s="10">
-        <v>1989</v>
+        <v>2018</v>
       </c>
       <c r="R41" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S41" s="10">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="V41" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S41" s="10">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="T41" s="10">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="U41" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="V41" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="W41" s="10"/>
-      <c r="X41" s="12"/>
+      <c r="W41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="X41" s="12">
+        <v>39175</v>
+      </c>
       <c r="Y41" s="12"/>
       <c r="Z41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AE41" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AF41" s="50">
+        <v>0.43373</v>
+      </c>
+      <c r="AG41" s="50">
+        <v>5.0650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="10">
+        <v>939</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="10">
+        <v>40.127200000000002</v>
+      </c>
+      <c r="J42" s="10">
+        <v>-74.711100000000002</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AA41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="65"/>
-      <c r="AF41" s="65"/>
-    </row>
-    <row r="42" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B42" s="10">
-        <v>952</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I42" s="10">
-        <v>39.991</v>
-      </c>
-      <c r="J42" s="10">
-        <v>-75.034199999999998</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="L42" s="10" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="N42" s="10">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="O42" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="11">
+        <v>3585110</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>1989</v>
+      </c>
+      <c r="R42" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P42" s="11">
-        <v>6604867</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S42" s="10">
-        <v>0.64</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="T42" s="10">
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="W42" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X42" s="12">
-        <v>38352</v>
-      </c>
-      <c r="Y42" s="12">
-        <v>40543</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="W42" s="10"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
       <c r="Z42" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB42" s="10"/>
-      <c r="AC42" s="10">
-        <v>2.7749999999999999</v>
-      </c>
-      <c r="AD42" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-    </row>
-    <row r="43" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="50"/>
+    </row>
+    <row r="43" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B43" s="10">
         <v>952</v>
       </c>
       <c r="C43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="G43" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>201</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="I43" s="10">
         <v>39.991</v>
@@ -6353,10 +6482,10 @@
         <v>-75.034199999999998</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M43" s="10">
         <v>1970</v>
@@ -6365,16 +6494,16 @@
         <v>2019</v>
       </c>
       <c r="O43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="11">
+        <v>6661070</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R43" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P43" s="11">
-        <v>6604867</v>
-      </c>
-      <c r="Q43" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R43" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S43" s="10">
         <v>0.64</v>
@@ -6383,232 +6512,245 @@
         <v>0</v>
       </c>
       <c r="U43" s="10" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="V43" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W43" s="10" t="s">
-        <v>206</v>
-      </c>
       <c r="X43" s="12">
-        <v>40544</v>
-      </c>
-      <c r="Y43" s="12"/>
+        <v>38352</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>40543</v>
+      </c>
       <c r="Z43" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA43" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB43" s="10"/>
       <c r="AC43" s="10">
-        <v>1.85</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="AD43" s="10">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="AE43" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="AF43" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="10">
+        <v>952</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I44" s="10">
+        <v>39.991</v>
+      </c>
+      <c r="J44" s="10">
+        <v>-75.034199999999998</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="M44" s="10">
+        <v>1970</v>
+      </c>
+      <c r="N44" s="10">
+        <v>2019</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="11">
+        <v>6661070</v>
+      </c>
+      <c r="Q44" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="10">
         <v>0.64</v>
       </c>
-      <c r="AE43" s="65">
-        <v>0.83579999999999999</v>
-      </c>
-      <c r="AF43" s="65">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B44" s="10">
-        <v>937</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="I44" s="10">
-        <v>39.383004</v>
-      </c>
-      <c r="J44" s="10">
-        <v>-74.633201</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L44" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M44" s="10">
-        <v>1950</v>
-      </c>
-      <c r="N44" s="10">
-        <v>1990</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P44" s="11">
-        <v>882917</v>
-      </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10" t="s">
+      <c r="T44" s="10">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="V44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S44" s="10">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="T44" s="10">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="U44" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="V44" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="W44" s="10"/>
-      <c r="X44" s="12"/>
+      <c r="W44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="X44" s="12">
+        <v>40544</v>
+      </c>
       <c r="Y44" s="12"/>
       <c r="Z44" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA44" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-    </row>
-    <row r="45" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC44" s="10">
+        <v>1.85</v>
+      </c>
+      <c r="AD44" s="10">
+        <v>1.85</v>
+      </c>
+      <c r="AE44" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="AF44" s="50">
+        <v>8.3580000000000002E-2</v>
+      </c>
+      <c r="AG44" s="50">
+        <v>9.7599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="B45" s="10">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>208</v>
+        <v>295</v>
       </c>
       <c r="D45" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="G45" s="10" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="I45" s="10">
-        <v>39.5869</v>
+        <v>39.383004</v>
       </c>
       <c r="J45" s="10">
-        <v>-75.378500000000003</v>
+        <v>-74.633201</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="M45" s="10">
-        <v>1988</v>
+        <v>1950</v>
       </c>
       <c r="N45" s="10">
-        <v>2043</v>
+        <v>1990</v>
       </c>
       <c r="O45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P45" s="11">
+        <v>882917</v>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P45" s="11">
-        <v>2816123</v>
-      </c>
-      <c r="Q45" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S45" s="10">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="T45" s="10"/>
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="T45" s="10">
+        <v>0.94199999999999995</v>
+      </c>
       <c r="U45" s="10" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W45" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X45" s="12">
-        <v>39800</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="W45" s="10"/>
+      <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AA45" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB45" s="10"/>
-      <c r="AC45" s="10">
-        <v>1.9</v>
-      </c>
+      <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
-      <c r="AE45" s="65">
-        <v>0.85840000000000005</v>
-      </c>
-      <c r="AF45" s="65">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE45" s="10"/>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
+    </row>
+    <row r="46" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B46" s="10">
         <v>948</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="G46" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="I46" s="10">
         <v>39.5869</v>
@@ -6617,10 +6759,10 @@
         <v>-75.378500000000003</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M46" s="10">
         <v>1988</v>
@@ -6629,166 +6771,170 @@
         <v>2043</v>
       </c>
       <c r="O46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" s="11">
+        <v>2945323</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R46" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P46" s="11">
-        <v>2816123</v>
-      </c>
-      <c r="Q46" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S46" s="10">
         <v>0.79200000000000004</v>
       </c>
       <c r="T46" s="10"/>
       <c r="U46" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="V46" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W46" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="X46" s="12">
-        <v>40468</v>
+        <v>39800</v>
       </c>
       <c r="Y46" s="12"/>
       <c r="Z46" s="10" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="AA46" s="10" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
+      <c r="AC46" s="10">
+        <v>1.9</v>
+      </c>
       <c r="AD46" s="10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AE46" s="65">
-        <v>0.26</v>
-      </c>
-      <c r="AF46" s="65">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+        <v>1.9</v>
+      </c>
+      <c r="AE46" s="10"/>
+      <c r="AF46" s="50">
+        <v>8.584E-2</v>
+      </c>
+      <c r="AG46" s="50">
+        <v>1.0019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B47" s="10">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="I47" s="10">
-        <v>41.094000000000001</v>
+        <v>39.5869</v>
       </c>
       <c r="J47" s="10">
-        <v>-74.671899999999994</v>
+        <v>-75.378500000000003</v>
       </c>
       <c r="K47" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="M47" s="10">
+        <v>1988</v>
+      </c>
+      <c r="N47" s="10">
+        <v>2043</v>
+      </c>
+      <c r="O47" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="M47" s="10">
-        <v>1970</v>
-      </c>
-      <c r="N47" s="10">
-        <v>2030</v>
-      </c>
-      <c r="O47" s="10" t="s">
+      <c r="P47" s="11">
+        <v>2945323</v>
+      </c>
+      <c r="Q47" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="11">
-        <v>1934255</v>
-      </c>
-      <c r="Q47" s="10">
-        <v>2011</v>
-      </c>
-      <c r="R47" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S47" s="10">
-        <v>0.83799999999999997</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="T47" s="10"/>
       <c r="U47" s="10" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>238</v>
+        <v>33</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="X47" s="12">
-        <v>35065</v>
-      </c>
-      <c r="Y47" s="12">
-        <v>40210</v>
-      </c>
+        <v>40468</v>
+      </c>
+      <c r="Y47" s="12"/>
       <c r="Z47" s="10" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="AA47" s="10" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="AB47" s="10"/>
-      <c r="AC47" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="10">
-        <v>0.504</v>
-      </c>
-      <c r="AE47" s="65"/>
-      <c r="AF47" s="65"/>
-    </row>
-    <row r="48" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AF47" s="50">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="AG47" s="50">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B48" s="10">
         <v>949</v>
       </c>
       <c r="C48" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F48" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="G48" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I48" s="10">
         <v>41.094000000000001</v>
@@ -6797,10 +6943,10 @@
         <v>-74.671899999999994</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M48" s="10">
         <v>1970</v>
@@ -6809,7 +6955,7 @@
         <v>2030</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P48" s="11">
         <v>1934255</v>
@@ -6818,238 +6964,336 @@
         <v>2011</v>
       </c>
       <c r="R48" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S48" s="10">
         <v>0.83799999999999997</v>
       </c>
       <c r="T48" s="10"/>
       <c r="U48" s="10" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="V48" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W48" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W48" s="10" t="s">
-        <v>129</v>
-      </c>
       <c r="X48" s="12">
-        <v>40695</v>
-      </c>
-      <c r="Y48" s="12"/>
+        <v>35065</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>40210</v>
+      </c>
       <c r="Z48" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA48" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB48" s="10"/>
       <c r="AC48" s="10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD48" s="10"/>
-      <c r="AE48" s="65">
-        <v>0.67769999999999997</v>
-      </c>
-      <c r="AF48" s="65">
-        <v>0.79200000000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AE48" s="10">
+        <v>0.504</v>
+      </c>
+      <c r="AF48" s="50"/>
+      <c r="AG48" s="50"/>
+    </row>
+    <row r="49" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
       <c r="B49" s="10">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="I49" s="10">
-        <v>40.822043999999998</v>
+        <v>41.094000000000001</v>
       </c>
       <c r="J49" s="10">
-        <v>-75.006146999999999</v>
+        <v>-74.671899999999994</v>
       </c>
       <c r="K49" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="M49" s="10">
+        <v>1970</v>
+      </c>
+      <c r="N49" s="10">
+        <v>2030</v>
+      </c>
+      <c r="O49" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="M49" s="10">
-        <v>1991</v>
-      </c>
-      <c r="N49" s="10">
-        <v>2021</v>
-      </c>
-      <c r="O49" s="10" t="s">
+      <c r="P49" s="11">
+        <v>1934255</v>
+      </c>
+      <c r="Q49" s="10">
+        <v>2011</v>
+      </c>
+      <c r="R49" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P49" s="11">
-        <v>960000</v>
-      </c>
-      <c r="Q49" s="10">
-        <v>2003</v>
-      </c>
-      <c r="R49" s="10" t="s">
+      <c r="S49" s="10">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="V49" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S49" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="T49" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="U49" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="V49" s="10" t="s">
-        <v>238</v>
-      </c>
       <c r="W49" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X49" s="12">
+        <v>40695</v>
+      </c>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA49" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="X49" s="12">
-        <v>38687</v>
-      </c>
-      <c r="Y49" s="12">
-        <v>40908</v>
-      </c>
-      <c r="Z49" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA49" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="AB49" s="10"/>
       <c r="AC49" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AE49" s="10"/>
+      <c r="AF49" s="50">
+        <v>6.7769999999999997E-2</v>
+      </c>
+      <c r="AG49" s="50">
+        <v>7.9100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="10">
+        <v>953</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I50" s="10">
+        <v>40.822043999999998</v>
+      </c>
+      <c r="J50" s="10">
+        <v>-75.006146999999999</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="M50" s="10">
+        <v>1991</v>
+      </c>
+      <c r="N50" s="10">
+        <v>2021</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" s="11">
+        <v>960000</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>2003</v>
+      </c>
+      <c r="R50" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="T50" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="U50" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="V50" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X50" s="12">
+        <v>38687</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>40908</v>
+      </c>
+      <c r="Z50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10">
         <v>3.8</v>
       </c>
-      <c r="AD49" s="10">
+      <c r="AD50" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AE50" s="10">
         <v>1.728</v>
       </c>
-      <c r="AE49" s="65"/>
-      <c r="AF49" s="65"/>
-    </row>
-    <row r="50" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="AF50" s="50"/>
+      <c r="AG50" s="50"/>
+    </row>
+    <row r="51" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="14">
+        <v>953</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B50" s="14">
-        <v>953</v>
-      </c>
-      <c r="C50" s="14" t="s">
+      <c r="G51" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="14" t="s">
+      <c r="H51" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="I51" s="14">
+        <v>40.822043999999998</v>
+      </c>
+      <c r="J51" s="14">
+        <v>-75.006146999999999</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="H50" s="13" t="s">
+      <c r="M51" s="14">
+        <v>1991</v>
+      </c>
+      <c r="N51" s="14">
+        <v>2021</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="15">
+        <v>960000</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>2003</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="T51" s="14">
+        <v>0.09</v>
+      </c>
+      <c r="U51" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="I50" s="14">
-        <v>40.822043999999998</v>
-      </c>
-      <c r="J50" s="14">
-        <v>-75.006146999999999</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="M50" s="14">
-        <v>1991</v>
-      </c>
-      <c r="N50" s="14">
-        <v>2021</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="15">
-        <v>960000</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>2003</v>
-      </c>
-      <c r="R50" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S50" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="T50" s="14">
-        <v>0.09</v>
-      </c>
-      <c r="U50" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="V50" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="W50" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="X50" s="16">
+      <c r="V51" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="W51" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="X51" s="16">
         <v>40909</v>
       </c>
-      <c r="Y50" s="16">
+      <c r="Y51" s="16">
         <v>42369</v>
       </c>
-      <c r="Z50" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA50" s="14" t="s">
+      <c r="Z51" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="14">
+      <c r="AA51" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB51" s="14"/>
+      <c r="AC51" s="14">
         <v>1.9</v>
       </c>
-      <c r="AD50" s="14">
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="14">
         <v>0.86</v>
       </c>
-      <c r="AE50" s="66"/>
-      <c r="AF50" s="66"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF50">
-    <sortCondition ref="C2:C50"/>
-    <sortCondition ref="U2:U50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG51">
+    <sortCondition ref="C2:C51"/>
+    <sortCondition ref="U2:U51"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - New Jersey&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - New Jersey&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -7061,7 +7305,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7079,10 +7323,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>47</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7090,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7098,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7106,7 +7350,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7114,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7122,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7130,7 +7374,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7138,7 +7382,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7146,7 +7390,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7154,7 +7398,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7162,7 +7406,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7170,7 +7414,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7178,7 +7422,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7186,7 +7430,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7194,7 +7438,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7202,7 +7446,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7210,7 +7454,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7218,7 +7462,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -7226,7 +7470,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7234,7 +7478,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7242,7 +7486,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7250,7 +7494,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7258,7 +7502,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7266,7 +7510,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7274,7 +7518,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7282,7 +7526,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7290,7 +7534,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -7298,47 +7542,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>72</v>
+      <c r="A30" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>73</v>
+      <c r="A31" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>75</v>
+      <c r="B34" s="46" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
